--- a/tests/Test_plates/Test_plate_amalgamation.xlsx
+++ b/tests/Test_plates/Test_plate_amalgamation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/sensing_array_paper_2019/tests/Test_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AD084A-F73C-0041-B5F0-DBCEBF05725E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171E30D2-3A05-FB43-88F9-70CCDFAE459B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1440" windowWidth="27240" windowHeight="15240" xr2:uid="{B18D36EA-6805-F24A-BB5B-53B1CB3A2B6F}"/>
   </bookViews>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E51466-2804-9745-9823-46FFF741CAE6}">
   <dimension ref="A2:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="J112" sqref="J112"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4969,7 +4969,7 @@
         <v>-0.3275854506332635</v>
       </c>
       <c r="G107">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> (G100 - AVERAGE(G100:G103)) / _xlfn.STDEV.P(G100:G103)</f>
         <v>-0.6227743961017157</v>
       </c>
       <c r="H107">
